--- a/database.xlsx
+++ b/database.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>ID клиента</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Текущий номер </t>
+  </si>
+  <si>
+    <t>краткая информация о канале/аккаунте</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +431,7 @@
     <col min="9" max="9" width="30.5703125" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="37.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
     <col min="21" max="21" width="12.140625" customWidth="1"/>
   </cols>
@@ -465,6 +469,9 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -554,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +575,7 @@
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
     <col min="11" max="11" width="29.140625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
@@ -601,6 +609,9 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
